--- a/Experimentos/MOORA.xlsx
+++ b/Experimentos/MOORA.xlsx
@@ -41,13 +41,13 @@
     <t>MOORA</t>
   </si>
   <si>
-    <t>17:32:56.365768</t>
-  </si>
-  <si>
-    <t>17:32:56.430394</t>
-  </si>
-  <si>
-    <t>0:00:00.064626</t>
+    <t>18:10:28.794320</t>
+  </si>
+  <si>
+    <t>18:10:28.870826</t>
+  </si>
+  <si>
+    <t>0:00:00.076506</t>
   </si>
   <si>
     <t>Puntuación Global</t>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.4296922435413436</v>
+        <v>-0.3382830958419764</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -546,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.4483164127802202</v>
+        <v>-0.3676794120597298</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -557,10 +557,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.4548217259366719</v>
+        <v>-0.3686056241719612</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -568,10 +568,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.4696157841660455</v>
+        <v>-0.3696722726065964</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -579,10 +579,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.4757442922189897</v>
+        <v>-0.3810834372102042</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -590,10 +590,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.477286591738898</v>
+        <v>-0.3843842686367432</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -601,10 +601,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.4934532339106772</v>
+        <v>-0.3900648670957504</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -612,10 +612,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.4996648261682686</v>
+        <v>-0.4026550323456228</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -623,10 +623,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.5076125478150496</v>
+        <v>-0.4070829349855442</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -870,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.4483164127802202</v>
+        <v>-0.4070829349855442</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -928,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.477286591738898</v>
+        <v>-0.4026550323456228</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -936,7 +936,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.4548217259366719</v>
+        <v>-0.3676794120597298</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -944,7 +944,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.4696157841660455</v>
+        <v>-0.3686056241719612</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -952,7 +952,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.4296922435413436</v>
+        <v>-0.3382830958419764</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -960,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.4757442922189897</v>
+        <v>-0.3696722726065964</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -968,7 +968,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.4934532339106772</v>
+        <v>-0.3810834372102042</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -976,7 +976,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.5076125478150496</v>
+        <v>-0.3900648670957504</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -984,7 +984,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.4996648261682686</v>
+        <v>-0.3843842686367432</v>
       </c>
     </row>
   </sheetData>
@@ -1290,10 +1290,10 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.1041687860076027</v>
+        <v>0.08333502880608218</v>
       </c>
       <c r="C2">
-        <v>0.06119916177946659</v>
+        <v>0.04079944118631107</v>
       </c>
       <c r="D2">
         <v>0.009114768775665239</v>
@@ -1310,10 +1310,10 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.188355840373504</v>
+        <v>0.1506846722988032</v>
       </c>
       <c r="C3">
-        <v>0.1108811739557231</v>
+        <v>0.07392078263714875</v>
       </c>
       <c r="D3">
         <v>0.01407337977130332</v>
@@ -1330,10 +1330,10 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.2178557846923555</v>
+        <v>0.1742846277538844</v>
       </c>
       <c r="C4">
-        <v>0.1307134708154133</v>
+        <v>0.0871423138769422</v>
       </c>
       <c r="D4">
         <v>0.01513524398915312</v>
@@ -1350,10 +1350,10 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.252525399985211</v>
+        <v>0.2020203199881688</v>
       </c>
       <c r="C5">
-        <v>0.1515152399911266</v>
+        <v>0.1010101599940844</v>
       </c>
       <c r="D5">
         <v>0.01539590341845318</v>
@@ -1370,10 +1370,10 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.228522869248418</v>
+        <v>0.1828182953987344</v>
       </c>
       <c r="C6">
-        <v>0.1371137215490508</v>
+        <v>0.09140914769936721</v>
       </c>
       <c r="D6">
         <v>0.01454236440671751</v>
@@ -1390,10 +1390,10 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>0.2632993394633877</v>
+        <v>0.2106394715707102</v>
       </c>
       <c r="C7">
-        <v>0.1602364551591473</v>
+        <v>0.1068243034394316</v>
       </c>
       <c r="D7">
         <v>0.01489521977535736</v>
@@ -1410,10 +1410,10 @@
         <v>23</v>
       </c>
       <c r="B8">
-        <v>0.2809244917511826</v>
+        <v>0.2247395934009461</v>
       </c>
       <c r="C8">
-        <v>0.1685546950507095</v>
+        <v>0.112369796700473</v>
       </c>
       <c r="D8">
         <v>0.01483281316446244</v>
@@ -1430,10 +1430,10 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>0.293869201798248</v>
+        <v>0.2350953614385984</v>
       </c>
       <c r="C9">
-        <v>0.1763215210789488</v>
+        <v>0.1175476807192992</v>
       </c>
       <c r="D9">
         <v>0.01473065872305142</v>
@@ -1450,10 +1450,10 @@
         <v>25</v>
       </c>
       <c r="B10">
-        <v>0.2882013938288137</v>
+        <v>0.230561115063051</v>
       </c>
       <c r="C10">
-        <v>0.1729208362972882</v>
+        <v>0.1152805575315255</v>
       </c>
       <c r="D10">
         <v>0.01375033156098918</v>
